--- a/abc4sfa/4_error_measurements/data/output/simulations/hf/simulation_hn_misspecification_exp_2025-04-23.xlsx
+++ b/abc4sfa/4_error_measurements/data/output/simulations/hf/simulation_hn_misspecification_exp_2025-04-23.xlsx
@@ -455,7 +455,7 @@
         <v>0.1637752293255005</v>
       </c>
       <c r="E4">
-        <v>0.1013550520182937</v>
+        <v>0.1013550520182936</v>
       </c>
       <c r="F4">
         <v>0.1538418105816294</v>
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>5.154880944066818e-05</v>
+        <v>0.007179749956695441</v>
       </c>
       <c r="D5">
-        <v>6.488377209797934e-05</v>
+        <v>0.008055046374663484</v>
       </c>
       <c r="E5">
-        <v>2.768797421356792e-05</v>
+        <v>0.005261936355902446</v>
       </c>
       <c r="F5">
-        <v>5.435381065358037e-05</v>
+        <v>0.007372503689628129</v>
       </c>
     </row>
     <row r="6">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.006675580739038944</v>
+        <v>0.08170422717974232</v>
       </c>
       <c r="D9">
-        <v>0.00619763923648243</v>
+        <v>0.0787250864495075</v>
       </c>
       <c r="E9">
-        <v>0.008770516616736211</v>
+        <v>0.09365103638901287</v>
       </c>
       <c r="F9">
-        <v>0.009181364902676918</v>
+        <v>0.0958194390647165</v>
       </c>
     </row>
   </sheetData>
